--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Audio Lab\Documents\GitHub\ABStaircaseMethod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Audio Lab\Documents\GitHub\VersionTwo\ABStaircaseMethod\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F667BB-3856-4231-A9F4-7F5542A004F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77338E2-1332-4486-8FEA-2CF3A9253078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Unique Identifier</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Threshold 6</t>
-  </si>
-  <si>
-    <t>Test2</t>
   </si>
 </sst>
 </file>
@@ -70,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -78,14 +75,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,26 +395,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="3" width="5.85546875" customWidth="true"/>
-    <col min="4" max="4" width="11.42578125" customWidth="true"/>
-    <col min="5" max="5" width="11.42578125" customWidth="true"/>
-    <col min="6" max="6" width="11.42578125" customWidth="true"/>
-    <col min="7" max="7" width="11.42578125" customWidth="true"/>
-    <col min="8" max="8" width="11.42578125" customWidth="true"/>
-    <col min="9" max="9" width="11.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,35 +436,6 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="0">
-        <v>-90</v>
-      </c>
-      <c r="E2" s="0">
-        <v>90</v>
-      </c>
-      <c r="F2" s="0">
-        <v>-90</v>
-      </c>
-      <c r="G2" s="0">
-        <v>90</v>
-      </c>
-      <c r="H2" s="0">
-        <v>-90</v>
-      </c>
-      <c r="I2" s="0">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Audio Lab\Documents\GitHub\VersionTwo\ABStaircaseMethod\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User Files\jtc519 - Jacob Cooper\Listening Tests - May '23\ABStaircaseMethod\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77338E2-1332-4486-8FEA-2CF3A9253078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303D68C8-3B6C-4F84-94A8-10A281A2253D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="2" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
     <col min="4" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
